--- a/mySQL_Create/data.xlsx
+++ b/mySQL_Create/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -373,7 +373,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -678,17 +678,18 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,7 +712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>62</v>
       </c>
@@ -730,17 +731,17 @@
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>64</v>
       </c>
       <c r="E3" s="10"/>
@@ -749,17 +750,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>64</v>
       </c>
       <c r="E4" s="10"/>
@@ -768,14 +769,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="9" t="s">
@@ -787,14 +788,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="9" t="s">
@@ -806,14 +807,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="9" t="s">
@@ -825,14 +826,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="9" t="s">
@@ -844,14 +845,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="9" t="s">
@@ -863,14 +864,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="9" t="s">
@@ -882,14 +883,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="9" t="s">
@@ -901,14 +902,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="9" t="s">
@@ -920,14 +921,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="9" t="s">
@@ -939,14 +940,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="9" t="s">
@@ -958,14 +959,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="9" t="s">
@@ -977,7 +978,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>38</v>
       </c>
@@ -987,24 +988,24 @@
       <c r="C16" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="9" t="s">
         <v>64</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="C17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>64</v>
       </c>
       <c r="E17" s="10"/>
@@ -1013,14 +1014,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="9" t="s">
@@ -1032,14 +1033,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>45</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="9" t="s">
@@ -1051,7 +1052,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>48</v>
       </c>
@@ -1068,7 +1069,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>50</v>
       </c>
@@ -1085,7 +1086,7 @@
       <c r="F21" s="10"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>52</v>
       </c>
@@ -1102,7 +1103,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>54</v>
       </c>
@@ -1119,7 +1120,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>57</v>
       </c>
@@ -1136,7 +1137,7 @@
       <c r="F24" s="10"/>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
         <v>60</v>
       </c>
@@ -1153,7 +1154,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
         <v>61</v>
       </c>
@@ -1163,7 +1164,7 @@
       <c r="C26" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="18" t="s">
         <v>65</v>
       </c>
       <c r="E26" s="20"/>

--- a/mySQL_Create/data.xlsx
+++ b/mySQL_Create/data.xlsx
@@ -677,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -989,7 +989,7 @@
         <v>63</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
